--- a/Plot_tool/xlsx/MSDS_16x16.xlsx
+++ b/Plot_tool/xlsx/MSDS_16x16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB9785-0300-4D2C-B5BE-ED28AAC75E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762ABEF2-0289-4CA9-8B26-ED808DDD37D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="1275" windowWidth="11310" windowHeight="11835" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="Mandrill" sheetId="6" r:id="rId6"/>
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST02" sheetId="9" r:id="rId9"/>
+    <sheet name="TEST19" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
     <t>MSDS1</t>
     <phoneticPr fontId="16"/>
@@ -728,6 +730,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269558E0-BA19-4A7D-B511-ADA878F78363}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>934.04684448242097</v>
+      </c>
+      <c r="B2" s="7">
+        <v>679.11364746093705</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
@@ -1338,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1366,6 +1464,102 @@
       </c>
       <c r="B2" s="7">
         <v>6209.7150878906205</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A52D7C-A130-4820-BD71-D83D69A1A02C}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>764.26705932617097</v>
+      </c>
+      <c r="B2" s="7">
+        <v>561.50363159179597</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>

--- a/Plot_tool/xlsx/MSDS_16x16.xlsx
+++ b/Plot_tool/xlsx/MSDS_16x16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762ABEF2-0289-4CA9-8B26-ED808DDD37D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2996D26-FFCC-423C-BEDF-35D745D52372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,15 @@
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
     <sheet name="TEST02" sheetId="9" r:id="rId9"/>
     <sheet name="TEST19" sheetId="10" r:id="rId10"/>
+    <sheet name="N8RGB" sheetId="11" r:id="rId11"/>
+    <sheet name="N6RGB" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
   <si>
     <t>MSDS1</t>
     <phoneticPr fontId="16"/>
@@ -734,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269558E0-BA19-4A7D-B511-ADA878F78363}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -762,6 +764,198 @@
       </c>
       <c r="B2" s="7">
         <v>679.11364746093705</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC01DD-DAD7-4742-982A-71630A720265}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>4732.0062255859302</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3404.8350830078102</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F87A569-3C43-4A40-9E3A-E58691B10D40}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>14310.714233398399</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5039.6470947265598</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>

--- a/Plot_tool/xlsx/MSDS_16x16.xlsx
+++ b/Plot_tool/xlsx/MSDS_16x16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2996D26-FFCC-423C-BEDF-35D745D52372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC706983-EFBE-45FF-B487-FF3F0A184FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="TEST19" sheetId="10" r:id="rId10"/>
     <sheet name="N8RGB" sheetId="11" r:id="rId11"/>
     <sheet name="N6RGB" sheetId="12" r:id="rId12"/>
+    <sheet name="Sailboat256" sheetId="13" r:id="rId13"/>
+    <sheet name="Trumpet" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="2">
   <si>
     <t>MSDS1</t>
     <phoneticPr fontId="16"/>
@@ -928,6 +930,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F87A569-3C43-4A40-9E3A-E58691B10D40}">
   <dimension ref="A1:H31"/>
   <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>14310.714233398399</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5039.6470947265598</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E739A5-13A0-42A2-B2AB-A8D1645D4703}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>17525.70703125</v>
+      </c>
+      <c r="B2" s="7">
+        <v>6157.986328125</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EF5EE2-B366-4BB5-918A-F8472AFF8DF1}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -952,10 +1146,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7">
-        <v>14310.714233398399</v>
+        <v>4732.0062255859302</v>
       </c>
       <c r="B2" s="7">
-        <v>5039.6470947265598</v>
+        <v>3404.8350830078102</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
